--- a/shaver_metaanalysis_2022/documentation/nmr_import_from_amanda_and_qc.xlsx
+++ b/shaver_metaanalysis_2022/documentation/nmr_import_from_amanda_and_qc.xlsx
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">sweet16 NMR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
   </si>
   <si>
     <t xml:space="preserve">PROJ:</t>
@@ -327,12 +330,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -369,7 +378,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -395,6 +404,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -421,17 +434,17 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="60.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="60.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -440,7 +453,9 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -460,10 +475,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -475,10 +490,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -501,7 +516,7 @@
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -525,137 +540,137 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="10" s="4" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" s="4" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" s="4" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" s="4" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4" t="s">
+    <row r="16" s="7" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="7" t="s">
         <v>25</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" s="4" customFormat="true" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7" t="s">
-        <v>26</v>
+      <c r="B18" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" s="4" customFormat="true" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7" t="s">
-        <v>31</v>
+      <c r="B20" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" s="4" customFormat="true" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
